--- a/model/results/mix1_ggpos_h2pos/v_demand.xlsx
+++ b/model/results/mix1_ggpos_h2pos/v_demand.xlsx
@@ -1592,10 +1592,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703705</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>7144833.333333333</v>
+        <v>2661136.292517005</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4483697.040816327</v>
       </c>
     </row>
     <row r="3">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703713</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
         <v>7144833.333333333</v>
@@ -1667,13 +1667,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1692,13 +1692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407409</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1798,7 +1798,7 @@
         <v>397156.1224489794</v>
       </c>
       <c r="D10" t="n">
-        <v>16874.14965986398</v>
+        <v>16874.14965986394</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>178720.2551020407</v>
       </c>
       <c r="D15" t="n">
-        <v>7593.367346938789</v>
+        <v>7593.367346938775</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1945,10 +1945,10 @@
         <v>1314465.578231292</v>
       </c>
       <c r="C16" t="n">
-        <v>317724.897959184</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13499.31972789118</v>
+        <v>13499.31972789115</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>1097126.530612245</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>317724.8979591834</v>
       </c>
     </row>
     <row r="17">
@@ -1970,10 +1970,10 @@
         <v>492924.5918367347</v>
       </c>
       <c r="C17" t="n">
-        <v>119146.836734694</v>
+        <v>119146.8367346938</v>
       </c>
       <c r="D17" t="n">
-        <v>5062.244897959192</v>
+        <v>5062.244897959183</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>164308.1972789115</v>
       </c>
       <c r="C18" t="n">
-        <v>39715.61224489793</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>1687.414965986394</v>
@@ -2007,7 +2007,7 @@
         <v>137140.8163265306</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>39715.61224489793</v>
       </c>
     </row>
     <row r="19">
@@ -2070,10 +2070,10 @@
         <v>443632.1326530612</v>
       </c>
       <c r="C21" t="n">
-        <v>107232.1530612246</v>
+        <v>107232.1530612244</v>
       </c>
       <c r="D21" t="n">
-        <v>4556.020408163273</v>
+        <v>4556.020408163265</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>328616.3945578231</v>
       </c>
       <c r="C22" t="n">
-        <v>79431.22448979586</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>3374.829931972788</v>
@@ -2107,7 +2107,7 @@
         <v>274281.6326530612</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>79431.22448979586</v>
       </c>
     </row>
     <row r="23">
@@ -2145,10 +2145,10 @@
         <v>722956.0680272108</v>
       </c>
       <c r="C24" t="n">
-        <v>174748.6938775512</v>
+        <v>174748.6938775509</v>
       </c>
       <c r="D24" t="n">
-        <v>7424.625850340149</v>
+        <v>7424.625850340135</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2170,10 +2170,10 @@
         <v>607940.3299319728</v>
       </c>
       <c r="C25" t="n">
-        <v>146947.7653061226</v>
+        <v>146947.7653061224</v>
       </c>
       <c r="D25" t="n">
-        <v>6243.435374149671</v>
+        <v>6243.435374149659</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>328616.3945578231</v>
       </c>
       <c r="C26" t="n">
-        <v>79431.22448979586</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>3374.829931972788</v>
@@ -2207,7 +2207,7 @@
         <v>274281.6326530612</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>79431.22448979586</v>
       </c>
     </row>
     <row r="27">
@@ -2267,19 +2267,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>197169.8367346938</v>
+        <v>197169.8367346557</v>
       </c>
       <c r="C29" t="n">
-        <v>47658.73469387752</v>
+        <v>47658.73469383346</v>
       </c>
       <c r="D29" t="n">
-        <v>2024.897959183673</v>
+        <v>2024.897959177799</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>164568.9795918367</v>
+        <v>164568.979591778</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49292.45918367346</v>
+        <v>49292.45918363526</v>
       </c>
       <c r="C30" t="n">
-        <v>11914.68367346938</v>
+        <v>11914.6836734253</v>
       </c>
       <c r="D30" t="n">
-        <v>506.2244897959183</v>
+        <v>506.2244897900405</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41142.24489795917</v>
+        <v>41142.2448979004</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>107232.1530612244</v>
       </c>
       <c r="D31" t="n">
-        <v>4556.020408163273</v>
+        <v>4556.020408163265</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2417,19 +2417,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D36" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -2517,19 +2517,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2545,16 +2545,16 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="D40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>602000</v>
+        <v>602000.0000000003</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -2567,19 +2567,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D41" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2592,19 +2592,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D42" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2617,19 +2617,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D43" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703705</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>1054045.929365078</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6090787.403968254</v>
+        <v>7144833.333333331</v>
       </c>
     </row>
     <row r="3">
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703713</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
         <v>7144833.333333333</v>
@@ -2743,7 +2743,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703701</v>
       </c>
       <c r="C4" t="n">
         <v>7144833.333333331</v>
@@ -2768,13 +2768,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2793,13 +2793,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407409</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666667</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>1643081.972789116</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>397156.1224489794</v>
       </c>
       <c r="D10" t="n">
         <v>16874.14965986394</v>
@@ -2908,7 +2908,7 @@
         <v>1371408.163265306</v>
       </c>
       <c r="G10" t="n">
-        <v>397156.1224489794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3096,7 +3096,7 @@
         <v>164308.1972789115</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2273.843537412995</v>
       </c>
       <c r="D18" t="n">
         <v>1687.414965986394</v>
@@ -3108,7 +3108,7 @@
         <v>137140.8163265306</v>
       </c>
       <c r="G18" t="n">
-        <v>39715.61224489793</v>
+        <v>37441.76870748494</v>
       </c>
     </row>
     <row r="19">
@@ -3121,7 +3121,7 @@
         <v>854402.6258503401</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>206521.1836734693</v>
       </c>
       <c r="D19" t="n">
         <v>8774.557823129251</v>
@@ -3133,7 +3133,7 @@
         <v>713132.2448979591</v>
       </c>
       <c r="G19" t="n">
-        <v>206521.1836734693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3196,7 +3196,7 @@
         <v>328616.3945578231</v>
       </c>
       <c r="C22" t="n">
-        <v>79431.224489796</v>
+        <v>79431.22448979586</v>
       </c>
       <c r="D22" t="n">
         <v>3374.829931972788</v>
@@ -3296,7 +3296,7 @@
         <v>328616.3945578231</v>
       </c>
       <c r="C26" t="n">
-        <v>79431.224489796</v>
+        <v>79431.22448979586</v>
       </c>
       <c r="D26" t="n">
         <v>3374.829931972788</v>
@@ -3321,7 +3321,7 @@
         <v>1643.081972789116</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>397.1561224489793</v>
       </c>
       <c r="D27" t="n">
         <v>16.87414965986394</v>
@@ -3333,7 +3333,7 @@
         <v>1371.408163265306</v>
       </c>
       <c r="G27" t="n">
-        <v>397.1561224489793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3368,22 +3368,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>197169.8367346938</v>
+        <v>197169.8367346557</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>47658.73469383346</v>
       </c>
       <c r="D29" t="n">
-        <v>2024.897959183673</v>
+        <v>2024.897959177799</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>164568.9795918367</v>
+        <v>164568.979591778</v>
       </c>
       <c r="G29" t="n">
-        <v>47658.73469387752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3393,19 +3393,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49292.45918367346</v>
+        <v>49292.45918363526</v>
       </c>
       <c r="C30" t="n">
-        <v>11914.68367346938</v>
+        <v>11914.6836734253</v>
       </c>
       <c r="D30" t="n">
-        <v>506.2244897959183</v>
+        <v>506.2244897900405</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41142.24489795917</v>
+        <v>41142.2448979004</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>93644.44444444445</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>86955.55555555556</v>
       </c>
       <c r="D34" t="n">
         <v>86955.55555555556</v>
@@ -3508,7 +3508,7 @@
         <v>401333.3333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3794,10 +3794,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703705</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>439542.7343537393</v>
+        <v>7144833.333333333</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6705290.598979592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703712</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3847,7 +3847,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333372</v>
+        <v>7144833.33333333</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3894,13 +3894,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407409</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666667</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>262893.1156462585</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>63544.97959183669</v>
       </c>
       <c r="D11" t="n">
         <v>2699.863945578231</v>
@@ -4034,7 +4034,7 @@
         <v>219425.3061224489</v>
       </c>
       <c r="G11" t="n">
-        <v>63544.97959183669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4147,7 +4147,7 @@
         <v>1314465.578231292</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>317724.8979591834</v>
       </c>
       <c r="D16" t="n">
         <v>13499.31972789115</v>
@@ -4159,7 +4159,7 @@
         <v>1097126.530612245</v>
       </c>
       <c r="G16" t="n">
-        <v>317724.8979591834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4197,7 +4197,7 @@
         <v>164308.1972789115</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>39715.61224489793</v>
       </c>
       <c r="D18" t="n">
         <v>1687.414965986394</v>
@@ -4209,7 +4209,7 @@
         <v>137140.8163265306</v>
       </c>
       <c r="G18" t="n">
-        <v>39715.61224489793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4272,7 +4272,7 @@
         <v>443632.1326530612</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>107232.1530612244</v>
       </c>
       <c r="D21" t="n">
         <v>4556.020408163265</v>
@@ -4284,7 +4284,7 @@
         <v>370280.2040816326</v>
       </c>
       <c r="G21" t="n">
-        <v>107232.1530612244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4297,7 +4297,7 @@
         <v>328616.3945578231</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>79431.22448979586</v>
       </c>
       <c r="D22" t="n">
         <v>3374.829931972788</v>
@@ -4309,7 +4309,7 @@
         <v>274281.6326530612</v>
       </c>
       <c r="G22" t="n">
-        <v>79431.224489796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4397,7 +4397,7 @@
         <v>328616.3945578231</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>79431.22448979586</v>
       </c>
       <c r="D26" t="n">
         <v>3374.829931972788</v>
@@ -4409,7 +4409,7 @@
         <v>274281.6326530612</v>
       </c>
       <c r="G26" t="n">
-        <v>79431.224489796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4422,7 +4422,7 @@
         <v>1643.081972789116</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>397.1561224489793</v>
       </c>
       <c r="D27" t="n">
         <v>16.87414965986394</v>
@@ -4434,7 +4434,7 @@
         <v>1371.408163265306</v>
       </c>
       <c r="G27" t="n">
-        <v>397.1561224489793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4469,19 +4469,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>197169.8367346938</v>
+        <v>197169.8367346557</v>
       </c>
       <c r="C29" t="n">
-        <v>47658.73469387752</v>
+        <v>47658.73469383346</v>
       </c>
       <c r="D29" t="n">
-        <v>2024.897959183673</v>
+        <v>2024.897959177799</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>164568.9795918367</v>
+        <v>164568.979591778</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -4494,19 +4494,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49292.45918367346</v>
+        <v>49292.45918363526</v>
       </c>
       <c r="C30" t="n">
-        <v>11914.68367346938</v>
+        <v>11914.6836734253</v>
       </c>
       <c r="D30" t="n">
-        <v>506.2244897959183</v>
+        <v>506.2244897900405</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41142.24489795917</v>
+        <v>41142.2448979004</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         <v>443632.1326530612</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>107232.1530612244</v>
       </c>
       <c r="D31" t="n">
         <v>4556.020408163265</v>
@@ -4534,7 +4534,7 @@
         <v>370280.2040816326</v>
       </c>
       <c r="G31" t="n">
-        <v>107232.1530612244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4619,19 +4619,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -4644,19 +4644,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D36" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -4719,19 +4719,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -4747,16 +4747,16 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="D40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>602000</v>
+        <v>602000.0000000003</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4794,19 +4794,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D42" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -4819,19 +4819,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D43" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4895,10 +4895,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703705</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>1922075.942970549</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5222757.390362816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4920,10 +4920,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703712</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
-        <v>7144833.333333333</v>
+        <v>5225351.2755102</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1919482.05782313</v>
       </c>
     </row>
     <row r="4">
@@ -4945,16 +4945,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.370370377</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333328</v>
+        <v>7144833.33333333</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.142041921615601e-08</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -4970,13 +4970,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666666</v>
       </c>
     </row>
     <row r="6">
@@ -4995,13 +4995,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.740740741</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666667</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5098,7 +5098,7 @@
         <v>1643081.972789116</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>397156.1224489794</v>
       </c>
       <c r="D10" t="n">
         <v>16874.14965986394</v>
@@ -5110,7 +5110,7 @@
         <v>1371408.163265306</v>
       </c>
       <c r="G10" t="n">
-        <v>397156.1224489794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5123,7 +5123,7 @@
         <v>262893.1156462585</v>
       </c>
       <c r="C11" t="n">
-        <v>63544.97959183669</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>2699.863945578231</v>
@@ -5135,7 +5135,7 @@
         <v>219425.3061224489</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>63544.97959183669</v>
       </c>
     </row>
     <row r="12">
@@ -5148,7 +5148,7 @@
         <v>131446.5578231292</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>31772.48979591835</v>
       </c>
       <c r="D12" t="n">
         <v>1349.931972789115</v>
@@ -5160,7 +5160,7 @@
         <v>109712.6530612245</v>
       </c>
       <c r="G12" t="n">
-        <v>31772.48979591835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5348,7 +5348,7 @@
         <v>16430.81972789115</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3971.561224489793</v>
       </c>
       <c r="D20" t="n">
         <v>168.7414965986394</v>
@@ -5360,7 +5360,7 @@
         <v>13714.08163265306</v>
       </c>
       <c r="G20" t="n">
-        <v>3971.561224489793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5423,7 +5423,7 @@
         <v>115015.7380952381</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>27800.92857142855</v>
       </c>
       <c r="D23" t="n">
         <v>1181.190476190476</v>
@@ -5435,7 +5435,7 @@
         <v>95998.57142857142</v>
       </c>
       <c r="G23" t="n">
-        <v>27800.92857142855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5523,7 +5523,7 @@
         <v>1643.081972789116</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>397.1561224489793</v>
       </c>
       <c r="D27" t="n">
         <v>16.87414965986394</v>
@@ -5535,7 +5535,7 @@
         <v>1371.408163265306</v>
       </c>
       <c r="G27" t="n">
-        <v>397.1561224489793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>197169.8367346938</v>
+        <v>197169.8367346557</v>
       </c>
       <c r="C29" t="n">
-        <v>47658.73469387752</v>
+        <v>47658.73469383346</v>
       </c>
       <c r="D29" t="n">
-        <v>2024.897959183673</v>
+        <v>2024.897959177799</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>164568.9795918367</v>
+        <v>164568.979591778</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -5595,19 +5595,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49292.45918367346</v>
+        <v>49292.45918363526</v>
       </c>
       <c r="C30" t="n">
-        <v>11914.68367346938</v>
+        <v>11914.6836734253</v>
       </c>
       <c r="D30" t="n">
-        <v>506.2244897959183</v>
+        <v>506.2244897900405</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41142.24489795917</v>
+        <v>41142.2448979004</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -5720,19 +5720,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -5745,22 +5745,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D36" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G36" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5773,7 +5773,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="D37" t="n">
         <v>173911.1111111111</v>
@@ -5785,7 +5785,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -5798,7 +5798,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="D38" t="n">
         <v>173911.1111111111</v>
@@ -5810,7 +5810,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G38" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5820,22 +5820,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G39" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -5848,16 +5848,16 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="D40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>602000</v>
+        <v>602000.0000000003</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222223</v>
@@ -5885,7 +5885,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -5895,22 +5895,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D42" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -5920,19 +5920,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D43" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -5999,7 +5999,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>159042.3356009054</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6985790.997732426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6021,10 +6021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6046,10 +6046,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703723</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333335</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7144833.333333331</v>
       </c>
     </row>
     <row r="5">
@@ -6071,13 +6071,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -6096,13 +6096,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407409</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666667</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -6199,10 +6199,10 @@
         <v>1643081.972789116</v>
       </c>
       <c r="C10" t="n">
-        <v>397156.1224489794</v>
+        <v>397156.1224489799</v>
       </c>
       <c r="D10" t="n">
-        <v>16874.14965986394</v>
+        <v>16874.149659864</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -6224,10 +6224,10 @@
         <v>262893.1156462585</v>
       </c>
       <c r="C11" t="n">
-        <v>63544.97959183669</v>
+        <v>63544.97959183678</v>
       </c>
       <c r="D11" t="n">
-        <v>2699.863945578231</v>
+        <v>2699.863945578239</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -6249,10 +6249,10 @@
         <v>131446.5578231292</v>
       </c>
       <c r="C12" t="n">
-        <v>31772.48979591835</v>
+        <v>31772.48979591839</v>
       </c>
       <c r="D12" t="n">
-        <v>1349.931972789115</v>
+        <v>1349.93197278912</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -6274,10 +6274,10 @@
         <v>213600.656462585</v>
       </c>
       <c r="C13" t="n">
-        <v>51630.29591836732</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2193.639455782313</v>
+        <v>2193.63945578232</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -6286,7 +6286,7 @@
         <v>178283.0612244898</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>51630.29591836739</v>
       </c>
     </row>
     <row r="14">
@@ -6324,10 +6324,10 @@
         <v>739386.887755102</v>
       </c>
       <c r="C15" t="n">
-        <v>178720.2551020407</v>
+        <v>178720.255102041</v>
       </c>
       <c r="D15" t="n">
-        <v>7593.367346938775</v>
+        <v>7593.367346938798</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -6349,7 +6349,7 @@
         <v>1314465.578231292</v>
       </c>
       <c r="C16" t="n">
-        <v>317724.8979591834</v>
+        <v>317724.8979591839</v>
       </c>
       <c r="D16" t="n">
         <v>13499.31972789115</v>
@@ -6374,10 +6374,10 @@
         <v>492924.5918367347</v>
       </c>
       <c r="C17" t="n">
-        <v>119146.8367346938</v>
+        <v>119146.836734694</v>
       </c>
       <c r="D17" t="n">
-        <v>5062.244897959183</v>
+        <v>5062.244897959198</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -6399,10 +6399,10 @@
         <v>164308.1972789115</v>
       </c>
       <c r="C18" t="n">
-        <v>39715.61224489793</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1687.414965986394</v>
+        <v>1687.414965986399</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>137140.8163265306</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>39715.61224489799</v>
       </c>
     </row>
     <row r="19">
@@ -6424,7 +6424,7 @@
         <v>854402.6258503401</v>
       </c>
       <c r="C19" t="n">
-        <v>206521.1836734693</v>
+        <v>206521.1836734696</v>
       </c>
       <c r="D19" t="n">
         <v>8774.557823129251</v>
@@ -6449,10 +6449,10 @@
         <v>16430.81972789115</v>
       </c>
       <c r="C20" t="n">
-        <v>3971.561224489793</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>168.7414965986397</v>
+        <v>168.7414965986394</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -6461,7 +6461,7 @@
         <v>13714.08163265306</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3971.561224489799</v>
       </c>
     </row>
     <row r="21">
@@ -6474,10 +6474,10 @@
         <v>443632.1326530612</v>
       </c>
       <c r="C21" t="n">
-        <v>107232.1530612246</v>
+        <v>107232.1530612244</v>
       </c>
       <c r="D21" t="n">
-        <v>4556.020408163273</v>
+        <v>4556.020408163265</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>328616.3945578231</v>
+        <v>328616.3945578234</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -6511,7 +6511,7 @@
         <v>274281.6326530612</v>
       </c>
       <c r="G22" t="n">
-        <v>79431.22448979586</v>
+        <v>79431.22448979598</v>
       </c>
     </row>
     <row r="23">
@@ -6524,10 +6524,10 @@
         <v>115015.7380952381</v>
       </c>
       <c r="C23" t="n">
-        <v>27800.9285714286</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.190476190476</v>
+        <v>1181.19047619048</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -6536,7 +6536,7 @@
         <v>95998.57142857142</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>27800.92857142859</v>
       </c>
     </row>
     <row r="24">
@@ -6549,10 +6549,10 @@
         <v>722956.0680272108</v>
       </c>
       <c r="C24" t="n">
-        <v>174748.6938775509</v>
+        <v>174748.6938775512</v>
       </c>
       <c r="D24" t="n">
-        <v>7424.625850340135</v>
+        <v>7424.625850340158</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>607940.3299319728</v>
       </c>
       <c r="C25" t="n">
-        <v>146947.7653061224</v>
+        <v>146947.7653061226</v>
       </c>
       <c r="D25" t="n">
         <v>6243.435374149659</v>
@@ -6671,22 +6671,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>197169.8367346938</v>
+        <v>197169.8367346189</v>
       </c>
       <c r="C29" t="n">
-        <v>47658.7346938776</v>
+        <v>-1.301213684138226e-08</v>
       </c>
       <c r="D29" t="n">
-        <v>2024.897959183673</v>
+        <v>2024.89795918368</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>164568.9795918367</v>
+        <v>164568.979591778</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>47658.73469387759</v>
       </c>
     </row>
     <row r="30">
@@ -6696,22 +6696,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49292.45918367346</v>
+        <v>49292.45918359852</v>
       </c>
       <c r="C30" t="n">
+        <v>-1.323025022870183e-08</v>
+      </c>
+      <c r="D30" t="n">
+        <v>506.2244897959198</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>41142.2448979004</v>
+      </c>
+      <c r="G30" t="n">
         <v>11914.6836734694</v>
-      </c>
-      <c r="D30" t="n">
-        <v>506.2244897959192</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>41142.24489795917</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6724,10 +6724,10 @@
         <v>443632.1326530612</v>
       </c>
       <c r="C31" t="n">
-        <v>107232.1530612244</v>
+        <v>107232.1530612246</v>
       </c>
       <c r="D31" t="n">
-        <v>4556.020408163265</v>
+        <v>4556.020408163278</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -6749,10 +6749,10 @@
         <v>98584.91836734692</v>
       </c>
       <c r="C32" t="n">
-        <v>23829.3673469388</v>
+        <v>23829.36734693876</v>
       </c>
       <c r="D32" t="n">
-        <v>1012.448979591838</v>
+        <v>1012.448979591837</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -6799,7 +6799,7 @@
         <v>93644.44444444445</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>86955.55555555556</v>
       </c>
       <c r="D34" t="n">
         <v>86955.55555555556</v>
@@ -6811,7 +6811,7 @@
         <v>401333.3333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6824,7 +6824,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>73912.22222222222</v>
@@ -6836,7 +6836,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="36">
@@ -6874,7 +6874,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="D37" t="n">
         <v>173911.1111111111</v>
@@ -6886,7 +6886,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -6899,7 +6899,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="D38" t="n">
         <v>173911.1111111111</v>
@@ -6911,7 +6911,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G38" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -6974,7 +6974,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222222</v>
+        <v>54780.81859410203</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222222</v>
@@ -6986,7 +6986,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>19131.4036281202</v>
       </c>
     </row>
     <row r="42">
@@ -7100,7 +7100,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>6966116.391383214</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7112,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>178716.9419501172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -7122,10 +7122,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703701</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6341117.596371838</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333331</v>
+        <v>803715.736961497</v>
       </c>
     </row>
     <row r="4">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703722</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333335</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7144833.333333333</v>
       </c>
     </row>
     <row r="5">
@@ -7172,10 +7172,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407395</v>
+        <v>242990.7407407415</v>
       </c>
       <c r="C5" t="n">
-        <v>2186916.666666665</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -7187,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2186916.666666667</v>
       </c>
     </row>
     <row r="6">
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>692523.6111111079</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -7206,13 +7206,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1615888.425925918</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2186916.666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -7312,7 +7312,7 @@
         <v>1371408.163265306</v>
       </c>
       <c r="G10" t="n">
-        <v>397156.1224489794</v>
+        <v>397156.1224489799</v>
       </c>
     </row>
     <row r="11">
@@ -7325,7 +7325,7 @@
         <v>262893.1156462585</v>
       </c>
       <c r="C11" t="n">
-        <v>63544.97959183669</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>2699.863945578231</v>
@@ -7337,7 +7337,7 @@
         <v>219425.3061224489</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>63544.97959183678</v>
       </c>
     </row>
     <row r="12">
@@ -7350,7 +7350,7 @@
         <v>131446.5578231292</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>31772.48979591839</v>
       </c>
       <c r="D12" t="n">
         <v>1349.931972789115</v>
@@ -7362,7 +7362,7 @@
         <v>109712.6530612245</v>
       </c>
       <c r="G12" t="n">
-        <v>31772.4897959184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7375,7 +7375,7 @@
         <v>213600.656462585</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>51630.29591836739</v>
       </c>
       <c r="D13" t="n">
         <v>2193.639455782313</v>
@@ -7387,7 +7387,7 @@
         <v>178283.0612244898</v>
       </c>
       <c r="G13" t="n">
-        <v>51630.29591836732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7400,7 +7400,7 @@
         <v>147877.3775510204</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>35744.05102040814</v>
       </c>
       <c r="D14" t="n">
         <v>1518.673469387755</v>
@@ -7412,7 +7412,7 @@
         <v>123426.7346938775</v>
       </c>
       <c r="G14" t="n">
-        <v>35744.05102040814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7437,7 +7437,7 @@
         <v>617133.6734693877</v>
       </c>
       <c r="G15" t="n">
-        <v>178720.2551020407</v>
+        <v>178720.255102041</v>
       </c>
     </row>
     <row r="16">
@@ -7450,10 +7450,10 @@
         <v>1314465.578231292</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>317724.8979591839</v>
       </c>
       <c r="D16" t="n">
-        <v>13499.31972789115</v>
+        <v>13499.31972789119</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -7462,7 +7462,7 @@
         <v>1097126.530612245</v>
       </c>
       <c r="G16" t="n">
-        <v>317724.8979591834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7475,7 +7475,7 @@
         <v>492924.5918367347</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>119146.836734694</v>
       </c>
       <c r="D17" t="n">
         <v>5062.244897959183</v>
@@ -7487,7 +7487,7 @@
         <v>411422.4489795918</v>
       </c>
       <c r="G17" t="n">
-        <v>119146.8367346938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7500,7 +7500,7 @@
         <v>164308.1972789115</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>39715.61224489799</v>
       </c>
       <c r="D18" t="n">
         <v>1687.414965986394</v>
@@ -7512,7 +7512,7 @@
         <v>137140.8163265306</v>
       </c>
       <c r="G18" t="n">
-        <v>39715.61224489793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>8774.557823129251</v>
+        <v>8774.557823129278</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -7537,7 +7537,7 @@
         <v>713132.2448979591</v>
       </c>
       <c r="G19" t="n">
-        <v>206521.1836734693</v>
+        <v>206521.1836734696</v>
       </c>
     </row>
     <row r="20">
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>168.7414965986394</v>
+        <v>168.7414965986399</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -7562,7 +7562,7 @@
         <v>13714.08163265306</v>
       </c>
       <c r="G20" t="n">
-        <v>3971.5612244898</v>
+        <v>3971.561224489799</v>
       </c>
     </row>
     <row r="21">
@@ -7587,7 +7587,7 @@
         <v>370280.2040816326</v>
       </c>
       <c r="G21" t="n">
-        <v>107232.1530612246</v>
+        <v>107232.1530612244</v>
       </c>
     </row>
     <row r="22">
@@ -7600,10 +7600,10 @@
         <v>328616.3945578231</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>79431.22448979598</v>
       </c>
       <c r="D22" t="n">
-        <v>3374.829931972788</v>
+        <v>3374.829931972798</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -7612,7 +7612,7 @@
         <v>274281.6326530612</v>
       </c>
       <c r="G22" t="n">
-        <v>79431.22448979586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -7625,10 +7625,10 @@
         <v>115015.7380952381</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>27800.92857142859</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.190476190478</v>
+        <v>1181.190476190476</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>95998.57142857142</v>
       </c>
       <c r="G23" t="n">
-        <v>27800.9285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6243.435374149659</v>
+        <v>6243.435374149678</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -7687,7 +7687,7 @@
         <v>507421.0204081632</v>
       </c>
       <c r="G25" t="n">
-        <v>146947.7653061224</v>
+        <v>146947.7653061226</v>
       </c>
     </row>
     <row r="26">
@@ -7700,7 +7700,7 @@
         <v>328616.3945578231</v>
       </c>
       <c r="C26" t="n">
-        <v>79431.22448979586</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>3374.829931972788</v>
@@ -7712,7 +7712,7 @@
         <v>274281.6326530612</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>79431.22448979586</v>
       </c>
     </row>
     <row r="27">
@@ -7725,7 +7725,7 @@
         <v>1643.081972789116</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>397.1561224489793</v>
       </c>
       <c r="D27" t="n">
         <v>16.87414965986394</v>
@@ -7737,7 +7737,7 @@
         <v>1371.408163265306</v>
       </c>
       <c r="G27" t="n">
-        <v>397.15612244898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -7750,7 +7750,7 @@
         <v>8215.409863945577</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1985.780612244897</v>
       </c>
       <c r="D28" t="n">
         <v>84.37074829931971</v>
@@ -7762,7 +7762,7 @@
         <v>6857.040816326529</v>
       </c>
       <c r="G28" t="n">
-        <v>1985.780612244897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -7772,22 +7772,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>197169.8367346938</v>
+        <v>197169.8367346189</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-1.323940956865499e-08</v>
       </c>
       <c r="D29" t="n">
-        <v>2024.897959183673</v>
+        <v>2024.897959183679</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>164568.9795918367</v>
+        <v>164568.979591778</v>
       </c>
       <c r="G29" t="n">
-        <v>47658.7346938776</v>
+        <v>47658.73469387759</v>
       </c>
     </row>
     <row r="30">
@@ -7797,22 +7797,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49292.45918367346</v>
+        <v>49292.45918363354</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>11914.6836734694</v>
       </c>
       <c r="D30" t="n">
-        <v>506.2244897959183</v>
+        <v>506.2244897897765</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41142.24489795917</v>
+        <v>41142.24489789776</v>
       </c>
       <c r="G30" t="n">
-        <v>11914.6836734694</v>
+        <v>-4.607897396979865e-08</v>
       </c>
     </row>
     <row r="31">
@@ -7825,7 +7825,7 @@
         <v>443632.1326530612</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>107232.1530612246</v>
       </c>
       <c r="D31" t="n">
         <v>4556.020408163265</v>
@@ -7837,7 +7837,7 @@
         <v>370280.2040816326</v>
       </c>
       <c r="G31" t="n">
-        <v>107232.1530612244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7875,7 +7875,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
       <c r="D33" t="n">
         <v>130433.3333333333</v>
@@ -7887,7 +7887,7 @@
         <v>602000</v>
       </c>
       <c r="G33" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -7900,7 +7900,7 @@
         <v>93644.44444444445</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>86955.55555555556</v>
@@ -7912,7 +7912,7 @@
         <v>401333.3333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>86955.55555555556</v>
       </c>
     </row>
     <row r="35">
@@ -7922,22 +7922,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -7947,22 +7947,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G36" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="37">
@@ -8000,7 +8000,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>173911.1111111111</v>
@@ -8012,7 +8012,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
     </row>
     <row r="39">
@@ -8022,22 +8022,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G39" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="40">
@@ -8047,22 +8047,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140466.6666666667</v>
+        <v>140466.6666666668</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>602000</v>
+        <v>602000.0000000003</v>
       </c>
       <c r="G40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
     </row>
     <row r="41">
@@ -8097,22 +8097,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="43">
@@ -8122,22 +8122,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G43" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
   </sheetData>
@@ -8201,7 +8201,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>5194106.138321992</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1950727.195011339</v>
+        <v>7144833.333333331</v>
       </c>
     </row>
     <row r="3">
@@ -8226,7 +8226,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6021860.473015778</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333331</v>
+        <v>1122972.860317553</v>
       </c>
     </row>
     <row r="4">
@@ -8248,7 +8248,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703722</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333335</v>
+        <v>7144833.333333333</v>
       </c>
     </row>
     <row r="5">
@@ -8276,7 +8276,7 @@
         <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>2186916.666666665</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -8298,16 +8298,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>692523.6111111077</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666666</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1615888.425925917</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -8401,10 +8401,10 @@
         <v>1643081.972789116</v>
       </c>
       <c r="C10" t="n">
-        <v>397156.1224489801</v>
+        <v>397156.1224489794</v>
       </c>
       <c r="D10" t="n">
-        <v>16874.14965986398</v>
+        <v>16874.14965986394</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -8426,10 +8426,10 @@
         <v>262893.1156462585</v>
       </c>
       <c r="C11" t="n">
-        <v>63544.9795918368</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2699.863945578236</v>
+        <v>2699.863945578231</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -8438,7 +8438,7 @@
         <v>219425.3061224489</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>63544.97959183669</v>
       </c>
     </row>
     <row r="12">
@@ -8451,7 +8451,7 @@
         <v>131446.5578231292</v>
       </c>
       <c r="C12" t="n">
-        <v>31772.4897959184</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1349.931972789115</v>
@@ -8463,7 +8463,7 @@
         <v>109712.6530612245</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>31772.48979591835</v>
       </c>
     </row>
     <row r="13">
@@ -8501,7 +8501,7 @@
         <v>147877.3775510204</v>
       </c>
       <c r="C14" t="n">
-        <v>35744.0510204082</v>
+        <v>35744.05102040814</v>
       </c>
       <c r="D14" t="n">
         <v>1518.673469387755</v>
@@ -8529,7 +8529,7 @@
         <v>178720.2551020407</v>
       </c>
       <c r="D15" t="n">
-        <v>7593.367346938789</v>
+        <v>7593.367346938775</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13499.31972789118</v>
+        <v>13499.31972789115</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>1097126.530612245</v>
       </c>
       <c r="G16" t="n">
-        <v>317724.897959184</v>
+        <v>317724.8979591834</v>
       </c>
     </row>
     <row r="17">
@@ -8576,10 +8576,10 @@
         <v>492924.5918367347</v>
       </c>
       <c r="C17" t="n">
-        <v>119146.8367346938</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5062.244897959192</v>
+        <v>5062.244897959183</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -8588,7 +8588,7 @@
         <v>411422.4489795918</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>119146.8367346938</v>
       </c>
     </row>
     <row r="18">
@@ -8629,7 +8629,7 @@
         <v>206521.1836734693</v>
       </c>
       <c r="D19" t="n">
-        <v>8774.557823129267</v>
+        <v>8774.557823129251</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -8651,7 +8651,7 @@
         <v>16430.81972789115</v>
       </c>
       <c r="C20" t="n">
-        <v>3971.5612244898</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>168.7414965986394</v>
@@ -8663,7 +8663,7 @@
         <v>13714.08163265306</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3971.561224489793</v>
       </c>
     </row>
     <row r="21">
@@ -8679,7 +8679,7 @@
         <v>107232.1530612244</v>
       </c>
       <c r="D21" t="n">
-        <v>4556.020408163273</v>
+        <v>4556.020408163265</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3374.829931972794</v>
+        <v>3374.829931972788</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>274281.6326530612</v>
       </c>
       <c r="G22" t="n">
-        <v>79431.224489796</v>
+        <v>79431.22448979586</v>
       </c>
     </row>
     <row r="23">
@@ -8726,7 +8726,7 @@
         <v>115015.7380952381</v>
       </c>
       <c r="C23" t="n">
-        <v>27800.9285714286</v>
+        <v>27800.92857142855</v>
       </c>
       <c r="D23" t="n">
         <v>1181.190476190476</v>
@@ -8751,10 +8751,10 @@
         <v>722956.0680272108</v>
       </c>
       <c r="C24" t="n">
-        <v>174748.6938775512</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>7424.625850340149</v>
+        <v>7424.625850340135</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>603419.5918367346</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>174748.6938775509</v>
       </c>
     </row>
     <row r="25">
@@ -8779,7 +8779,7 @@
         <v>146947.7653061224</v>
       </c>
       <c r="D25" t="n">
-        <v>6243.435374149671</v>
+        <v>6243.435374149659</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3374.829931972794</v>
+        <v>3374.829931972788</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>274281.6326530612</v>
       </c>
       <c r="G26" t="n">
-        <v>79431.224489796</v>
+        <v>79431.22448979586</v>
       </c>
     </row>
     <row r="27">
@@ -8826,7 +8826,7 @@
         <v>1643.081972789116</v>
       </c>
       <c r="C27" t="n">
-        <v>397.15612244898</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>16.87414965986394</v>
@@ -8838,7 +8838,7 @@
         <v>1371.408163265306</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>397.1561224489793</v>
       </c>
     </row>
     <row r="28">
@@ -8851,7 +8851,7 @@
         <v>8215.409863945577</v>
       </c>
       <c r="C28" t="n">
-        <v>1985.780612244897</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>84.37074829931971</v>
@@ -8863,7 +8863,7 @@
         <v>6857.040816326529</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1985.780612244897</v>
       </c>
     </row>
     <row r="29">
@@ -8873,22 +8873,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>197169.8367346938</v>
+        <v>197169.8367346539</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2024.897959183677</v>
+        <v>2024.897959177535</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>164568.9795918367</v>
+        <v>164568.9795917753</v>
       </c>
       <c r="G29" t="n">
-        <v>47658.73469387752</v>
+        <v>47658.73469383148</v>
       </c>
     </row>
     <row r="30">
@@ -8898,22 +8898,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49292.45918367346</v>
+        <v>49292.45918363354</v>
       </c>
       <c r="C30" t="n">
-        <v>11914.68367346938</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>506.2244897959183</v>
+        <v>506.2244897897765</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41142.24489795917</v>
+        <v>41142.24489789776</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>11914.68367342332</v>
       </c>
     </row>
     <row r="31">
@@ -8926,10 +8926,10 @@
         <v>443632.1326530612</v>
       </c>
       <c r="C31" t="n">
-        <v>107232.1530612244</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4556.020408163273</v>
+        <v>4556.020408163265</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>370280.2040816326</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>107232.1530612244</v>
       </c>
     </row>
     <row r="32">
@@ -8951,7 +8951,7 @@
         <v>98584.91836734692</v>
       </c>
       <c r="C32" t="n">
-        <v>23829.3673469388</v>
+        <v>23829.36734693876</v>
       </c>
       <c r="D32" t="n">
         <v>1012.448979591837</v>
@@ -9023,22 +9023,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="36">
@@ -9048,22 +9048,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="37">
@@ -9123,22 +9123,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="40">
@@ -9148,22 +9148,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140466.6666666667</v>
+        <v>140466.6666666668</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="D40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>602000</v>
+        <v>602000.0000000003</v>
       </c>
       <c r="G40" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -9176,7 +9176,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222222</v>
@@ -9188,7 +9188,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="42">
@@ -9198,22 +9198,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="43">
@@ -9223,22 +9223,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
   </sheetData>
@@ -9299,10 +9299,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703763</v>
       </c>
       <c r="C2" t="n">
-        <v>6699723.481519302</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>445109.8518140288</v>
+        <v>7144833.333333394</v>
       </c>
     </row>
     <row r="3">
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703722</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.33333333</v>
+        <v>7144833.333333389</v>
       </c>
     </row>
     <row r="4">
@@ -9349,22 +9349,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703746</v>
+        <v>793870.3703703722</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>17999.85090720324</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.490116119384766e-08</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.33333335</v>
+        <v>7126833.482426186</v>
       </c>
     </row>
     <row r="5">
@@ -9374,10 +9374,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407407</v>
+        <v>242990.7407407415</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2186916.666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -9399,7 +9399,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>692523.6111111083</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9408,13 +9408,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1615888.425925919</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -9502,7 +9502,7 @@
         <v>1643081.972789116</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>397156.1224489794</v>
       </c>
       <c r="D10" t="n">
         <v>16874.14965986394</v>
@@ -9514,7 +9514,7 @@
         <v>1371408.163265306</v>
       </c>
       <c r="G10" t="n">
-        <v>397156.1224489794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -9527,7 +9527,7 @@
         <v>262893.1156462585</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>63544.97959183669</v>
       </c>
       <c r="D11" t="n">
         <v>2699.863945578231</v>
@@ -9539,7 +9539,7 @@
         <v>219425.3061224489</v>
       </c>
       <c r="G11" t="n">
-        <v>63544.97959183669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -9552,7 +9552,7 @@
         <v>131446.5578231292</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>31772.48979591835</v>
       </c>
       <c r="D12" t="n">
         <v>1349.931972789115</v>
@@ -9564,7 +9564,7 @@
         <v>109712.6530612245</v>
       </c>
       <c r="G12" t="n">
-        <v>31772.4897959184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -9577,7 +9577,7 @@
         <v>213600.656462585</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>51630.29591836732</v>
       </c>
       <c r="D13" t="n">
         <v>2193.639455782313</v>
@@ -9589,7 +9589,7 @@
         <v>178283.0612244898</v>
       </c>
       <c r="G13" t="n">
-        <v>51630.2959183674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -9602,7 +9602,7 @@
         <v>147877.3775510204</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>35744.05102040814</v>
       </c>
       <c r="D14" t="n">
         <v>1518.673469387755</v>
@@ -9614,7 +9614,7 @@
         <v>123426.7346938775</v>
       </c>
       <c r="G14" t="n">
-        <v>35744.05102040814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -9627,7 +9627,7 @@
         <v>739386.887755102</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>178720.2551020407</v>
       </c>
       <c r="D15" t="n">
         <v>7593.367346938775</v>
@@ -9639,7 +9639,7 @@
         <v>617133.6734693877</v>
       </c>
       <c r="G15" t="n">
-        <v>178720.255102041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -9677,7 +9677,7 @@
         <v>492924.5918367347</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>119146.8367346938</v>
       </c>
       <c r="D17" t="n">
         <v>5062.244897959183</v>
@@ -9689,7 +9689,7 @@
         <v>411422.4489795918</v>
       </c>
       <c r="G17" t="n">
-        <v>119146.8367346938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -9727,7 +9727,7 @@
         <v>854402.6258503401</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>206521.1836734693</v>
       </c>
       <c r="D19" t="n">
         <v>8774.557823129251</v>
@@ -9739,7 +9739,7 @@
         <v>713132.2448979591</v>
       </c>
       <c r="G19" t="n">
-        <v>206521.1836734693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -9752,7 +9752,7 @@
         <v>16430.81972789115</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3971.561224489793</v>
       </c>
       <c r="D20" t="n">
         <v>168.7414965986394</v>
@@ -9764,7 +9764,7 @@
         <v>13714.08163265306</v>
       </c>
       <c r="G20" t="n">
-        <v>3971.5612244898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -9777,7 +9777,7 @@
         <v>443632.1326530612</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>107232.1530612244</v>
       </c>
       <c r="D21" t="n">
         <v>4556.020408163265</v>
@@ -9789,7 +9789,7 @@
         <v>370280.2040816326</v>
       </c>
       <c r="G21" t="n">
-        <v>107232.1530612244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -9827,7 +9827,7 @@
         <v>115015.7380952381</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>27800.92857142855</v>
       </c>
       <c r="D23" t="n">
         <v>1181.190476190476</v>
@@ -9839,7 +9839,7 @@
         <v>95998.57142857142</v>
       </c>
       <c r="G23" t="n">
-        <v>27800.9285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -9852,7 +9852,7 @@
         <v>722956.0680272108</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>174748.6938775509</v>
       </c>
       <c r="D24" t="n">
         <v>7424.625850340135</v>
@@ -9864,7 +9864,7 @@
         <v>603419.5918367346</v>
       </c>
       <c r="G24" t="n">
-        <v>174748.6938775509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -9877,7 +9877,7 @@
         <v>607940.3299319728</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>146947.7653061224</v>
       </c>
       <c r="D25" t="n">
         <v>6243.435374149659</v>
@@ -9889,7 +9889,7 @@
         <v>507421.0204081632</v>
       </c>
       <c r="G25" t="n">
-        <v>146947.7653061224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -9927,7 +9927,7 @@
         <v>1643.081972789116</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>397.1561224489793</v>
       </c>
       <c r="D27" t="n">
         <v>16.87414965986394</v>
@@ -9939,7 +9939,7 @@
         <v>1371.408163265306</v>
       </c>
       <c r="G27" t="n">
-        <v>397.15612244898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -9952,7 +9952,7 @@
         <v>8215.409863945577</v>
       </c>
       <c r="C28" t="n">
-        <v>1985.780612244897</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>84.37074829931971</v>
@@ -9964,7 +9964,7 @@
         <v>6857.040816326529</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1985.780612244897</v>
       </c>
     </row>
     <row r="29">
@@ -9974,22 +9974,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>197169.8367346938</v>
+        <v>197169.8367346539</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>47658.73469383148</v>
       </c>
       <c r="D29" t="n">
-        <v>2024.897959183673</v>
+        <v>2024.897959177535</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>164568.9795918367</v>
+        <v>164568.9795917753</v>
       </c>
       <c r="G29" t="n">
-        <v>47658.73469387752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -9999,22 +9999,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49292.45918367346</v>
+        <v>49292.45918363354</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>11914.68367342332</v>
       </c>
       <c r="D30" t="n">
-        <v>506.2244897959183</v>
+        <v>506.2244897897765</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41142.24489795917</v>
+        <v>41142.24489789776</v>
       </c>
       <c r="G30" t="n">
-        <v>11914.68367346938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -10027,7 +10027,7 @@
         <v>443632.1326530612</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>107232.1530612244</v>
       </c>
       <c r="D31" t="n">
         <v>4556.020408163265</v>
@@ -10039,7 +10039,7 @@
         <v>370280.2040816326</v>
       </c>
       <c r="G31" t="n">
-        <v>107232.1530612244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -10052,7 +10052,7 @@
         <v>98584.91836734692</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>23829.36734693876</v>
       </c>
       <c r="D32" t="n">
         <v>1012.448979591837</v>
@@ -10064,7 +10064,7 @@
         <v>82284.48979591834</v>
       </c>
       <c r="G32" t="n">
-        <v>23829.36734693876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -10077,7 +10077,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
       <c r="D33" t="n">
         <v>130433.3333333333</v>
@@ -10089,7 +10089,7 @@
         <v>602000</v>
       </c>
       <c r="G33" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -10124,22 +10124,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -10149,22 +10149,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D36" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G36" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -10224,22 +10224,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G39" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -10249,22 +10249,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140466.6666666667</v>
+        <v>140466.6666666668</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>602000</v>
+        <v>602000.0000000003</v>
       </c>
       <c r="G40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
     </row>
     <row r="41">
@@ -10277,7 +10277,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222222</v>
@@ -10289,7 +10289,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -10299,22 +10299,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D42" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -10324,22 +10324,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D43" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G43" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -10415,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="3">
@@ -10425,7 +10425,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="4">
@@ -10450,7 +10450,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703731</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -10465,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333305</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="5">
@@ -10475,10 +10475,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407407</v>
+        <v>242990.7407407414</v>
       </c>
       <c r="C5" t="n">
-        <v>1701709.262131508</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -10490,7 +10490,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>485207.4045351576</v>
+        <v>2186916.666666667</v>
       </c>
     </row>
     <row r="6">
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>692523.611111107</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -10509,13 +10509,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1615888.425925917</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -11075,22 +11075,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>197169.8367346938</v>
+        <v>197169.8367346539</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2024.897959183673</v>
+        <v>2024.897959177535</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>164568.9795918367</v>
+        <v>164568.9795917753</v>
       </c>
       <c r="G29" t="n">
-        <v>47658.73469387752</v>
+        <v>47658.73469383148</v>
       </c>
     </row>
     <row r="30">
@@ -11100,22 +11100,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49292.45918367346</v>
+        <v>49292.45918363354</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>506.2244897959183</v>
+        <v>506.2244897897765</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41142.24489795917</v>
+        <v>41142.24489789776</v>
       </c>
       <c r="G30" t="n">
-        <v>11914.68367346938</v>
+        <v>11914.68367342332</v>
       </c>
     </row>
     <row r="31">
@@ -11225,22 +11225,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="36">
@@ -11250,22 +11250,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G36" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="37">
@@ -11325,22 +11325,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G39" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="40">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140466.6666666667</v>
+        <v>140466.6666666668</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>602000</v>
+        <v>602000.0000000003</v>
       </c>
       <c r="G40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
     </row>
     <row r="41">
@@ -11400,22 +11400,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="43">
@@ -11425,22 +11425,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G43" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
   </sheetData>
@@ -11501,7 +11501,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703701</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -11516,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
     </row>
     <row r="3">
@@ -11526,7 +11526,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703693</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -11541,7 +11541,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333219</v>
       </c>
     </row>
     <row r="4">
@@ -11551,7 +11551,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.370370378</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -11560,13 +11560,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.793967723846437e-08</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333293</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="5">
@@ -11576,7 +11576,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407407</v>
+        <v>242990.7407407414</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2186916.666666666</v>
+        <v>2186916.666666667</v>
       </c>
     </row>
     <row r="6">
@@ -11601,7 +11601,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407408</v>
+        <v>692523.6111111069</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -11610,13 +11610,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1615888.425925916</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2186916.666666679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>16874.14965986394</v>
+        <v>16874.149659864</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -11716,7 +11716,7 @@
         <v>1371408.163265306</v>
       </c>
       <c r="G10" t="n">
-        <v>397156.1224489794</v>
+        <v>397156.1224489799</v>
       </c>
     </row>
     <row r="11">
@@ -11732,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2699.863945578231</v>
+        <v>2699.863945578239</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -11757,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1349.931972789115</v>
+        <v>1349.93197278912</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -11782,7 +11782,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2193.639455782313</v>
+        <v>2193.63945578232</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1518.673469387755</v>
+        <v>1518.673469387759</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -11832,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>7593.367346938775</v>
+        <v>7593.367346938798</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -11841,7 +11841,7 @@
         <v>617133.6734693877</v>
       </c>
       <c r="G15" t="n">
-        <v>178720.2551020407</v>
+        <v>178720.255102041</v>
       </c>
     </row>
     <row r="16">
@@ -11857,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13499.31972789115</v>
+        <v>13499.31972789119</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -11882,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5062.244897959183</v>
+        <v>5062.244897959198</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         <v>411422.4489795918</v>
       </c>
       <c r="G17" t="n">
-        <v>119146.8367346938</v>
+        <v>119146.836734694</v>
       </c>
     </row>
     <row r="18">
@@ -11907,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1687.414965986394</v>
+        <v>1687.414965986399</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>8774.557823129251</v>
+        <v>8774.557823129278</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -11941,7 +11941,7 @@
         <v>713132.2448979591</v>
       </c>
       <c r="G19" t="n">
-        <v>206521.1836734693</v>
+        <v>206521.1836734696</v>
       </c>
     </row>
     <row r="20">
@@ -11957,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>168.7414965986394</v>
+        <v>168.7414965986399</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -11982,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>4556.020408163265</v>
+        <v>4556.020408163278</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -12007,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3374.829931972788</v>
+        <v>3374.829931972798</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -12016,7 +12016,7 @@
         <v>274281.6326530612</v>
       </c>
       <c r="G22" t="n">
-        <v>79431.22448979586</v>
+        <v>79431.22448979587</v>
       </c>
     </row>
     <row r="23">
@@ -12032,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.190476190476</v>
+        <v>1181.19047619048</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -12057,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>7424.625850340135</v>
+        <v>7424.625850340158</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -12082,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6243.435374149659</v>
+        <v>6243.435374149678</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -12107,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3374.829931972788</v>
+        <v>3374.829931972798</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>16.87414965986394</v>
+        <v>16.874149659864</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>84.37074829931971</v>
+        <v>84.37074829931997</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -12176,22 +12176,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>197169.8367346938</v>
+        <v>197169.8367346189</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2024.897959183673</v>
+        <v>2024.897959183679</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>164568.9795918367</v>
+        <v>164568.979591778</v>
       </c>
       <c r="G29" t="n">
-        <v>47658.73469387752</v>
+        <v>47658.73469386435</v>
       </c>
     </row>
     <row r="30">
@@ -12201,22 +12201,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49292.45918367346</v>
+        <v>49292.45918359852</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>506.2244897959183</v>
+        <v>506.2244897959198</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41142.24489795917</v>
+        <v>41142.2448979004</v>
       </c>
       <c r="G30" t="n">
-        <v>11914.68367346938</v>
+        <v>11914.68367345617</v>
       </c>
     </row>
     <row r="31">
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4556.020408163265</v>
+        <v>4556.020408163278</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -12241,7 +12241,7 @@
         <v>370280.2040816326</v>
       </c>
       <c r="G31" t="n">
-        <v>107232.1530612244</v>
+        <v>107232.1530612246</v>
       </c>
     </row>
     <row r="32">
@@ -12257,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1012.448979591837</v>
+        <v>1012.44897959184</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -12326,22 +12326,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="36">
@@ -12351,22 +12351,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G36" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="37">
@@ -12426,22 +12426,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G39" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="40">
@@ -12451,22 +12451,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140466.6666666667</v>
+        <v>140466.6666666668</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>602000</v>
+        <v>602000.0000000003</v>
       </c>
       <c r="G40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
     </row>
     <row r="41">
@@ -12501,22 +12501,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="43">
@@ -12526,22 +12526,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G43" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
   </sheetData>
@@ -12652,13 +12652,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598487.4598337113</v>
+        <v>635096.2962962962</v>
       </c>
       <c r="C4" t="n">
-        <v>897731.1897505666</v>
+        <v>952644.4444444441</v>
       </c>
       <c r="D4" t="n">
-        <v>4488655.948752834</v>
+        <v>4763222.222222221</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -12677,13 +12677,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>179813.1481481481</v>
+        <v>194392.5925925926</v>
       </c>
       <c r="C5" t="n">
-        <v>269719.7222222222</v>
+        <v>291588.8888888888</v>
       </c>
       <c r="D5" t="n">
-        <v>1348598.611111111</v>
+        <v>1457944.444444444</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -13277,19 +13277,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>117260</v>
+        <v>117259.9999999684</v>
       </c>
       <c r="C29" t="n">
-        <v>135300</v>
+        <v>135299.9999999636</v>
       </c>
       <c r="D29" t="n">
-        <v>18040</v>
+        <v>18039.99999999514</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>180400</v>
+        <v>180399.9999999514</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -13302,19 +13302,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29315</v>
+        <v>29314.99999996842</v>
       </c>
       <c r="C30" t="n">
-        <v>33824.99999999999</v>
+        <v>33824.99999996355</v>
       </c>
       <c r="D30" t="n">
-        <v>4510</v>
+        <v>4509.999999995141</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>45099.99999999999</v>
+        <v>45099.9999999514</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -13703,7 +13703,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -13718,7 +13718,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="3">
@@ -13728,7 +13728,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703728</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -13743,7 +13743,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333335</v>
       </c>
     </row>
     <row r="4">
@@ -13753,7 +13753,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.370370378</v>
+        <v>793870.3703703766</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -13762,13 +13762,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.793967723846437e-08</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333293</v>
+        <v>7144833.333333388</v>
       </c>
     </row>
     <row r="5">
@@ -13778,7 +13778,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242990.7407407407</v>
+        <v>242990.7407407414</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -13793,7 +13793,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2186916.666666666</v>
+        <v>2186916.666666667</v>
       </c>
     </row>
     <row r="6">
@@ -13803,7 +13803,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407408</v>
+        <v>692523.6111111067</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -13812,13 +13812,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1615888.425925916</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2186916.666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -14378,22 +14378,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>197169.8367346938</v>
+        <v>197169.8367346539</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2024.897959183673</v>
+        <v>2024.897959177535</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>164568.9795918367</v>
+        <v>164568.9795917753</v>
       </c>
       <c r="G29" t="n">
-        <v>47658.73469387752</v>
+        <v>47658.73469383148</v>
       </c>
     </row>
     <row r="30">
@@ -14403,22 +14403,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49292.45918367346</v>
+        <v>49292.45918363354</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>506.2244897959183</v>
+        <v>506.2244897897765</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41142.24489795917</v>
+        <v>41142.24489789776</v>
       </c>
       <c r="G30" t="n">
-        <v>11914.68367346938</v>
+        <v>11914.68367342332</v>
       </c>
     </row>
     <row r="31">
@@ -14528,22 +14528,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="36">
@@ -14553,22 +14553,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G36" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="37">
@@ -14628,22 +14628,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G39" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="40">
@@ -14653,22 +14653,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140466.6666666667</v>
+        <v>140466.6666666668</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>602000</v>
+        <v>602000.0000000003</v>
       </c>
       <c r="G40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
     </row>
     <row r="41">
@@ -14703,22 +14703,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="43">
@@ -14728,22 +14728,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G43" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
   </sheetData>
@@ -14854,13 +14854,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598487.4598337113</v>
+        <v>635096.2962962962</v>
       </c>
       <c r="C4" t="n">
-        <v>897731.1897505666</v>
+        <v>952644.4444444441</v>
       </c>
       <c r="D4" t="n">
-        <v>4488655.948752834</v>
+        <v>4763222.222222221</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -14879,13 +14879,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>179813.1481481481</v>
+        <v>194392.5925925926</v>
       </c>
       <c r="C5" t="n">
-        <v>269719.7222222222</v>
+        <v>291588.8888888888</v>
       </c>
       <c r="D5" t="n">
-        <v>1348598.611111111</v>
+        <v>1457944.444444444</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -15479,19 +15479,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>117260</v>
+        <v>117259.9999999684</v>
       </c>
       <c r="C29" t="n">
-        <v>135300</v>
+        <v>135299.9999999636</v>
       </c>
       <c r="D29" t="n">
-        <v>18040</v>
+        <v>18039.99999999514</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>180400</v>
+        <v>180399.9999999514</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -15504,19 +15504,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29315</v>
+        <v>29314.99999996842</v>
       </c>
       <c r="C30" t="n">
-        <v>33824.99999999999</v>
+        <v>33824.99999996355</v>
       </c>
       <c r="D30" t="n">
-        <v>4510</v>
+        <v>4509.999999995141</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>45099.99999999999</v>
+        <v>45099.9999999514</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -15955,13 +15955,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598487.4598337113</v>
+        <v>635096.2962962962</v>
       </c>
       <c r="C4" t="n">
-        <v>897731.1897505666</v>
+        <v>952644.4444444441</v>
       </c>
       <c r="D4" t="n">
-        <v>4488655.948752834</v>
+        <v>4763222.222222221</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -15980,13 +15980,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>179813.1481481481</v>
+        <v>194392.5925925926</v>
       </c>
       <c r="C5" t="n">
-        <v>269719.7222222222</v>
+        <v>291588.8888888888</v>
       </c>
       <c r="D5" t="n">
-        <v>1348598.611111111</v>
+        <v>1457944.444444444</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -16580,19 +16580,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>117260</v>
+        <v>117259.9999999684</v>
       </c>
       <c r="C29" t="n">
-        <v>135300</v>
+        <v>135299.9999999636</v>
       </c>
       <c r="D29" t="n">
-        <v>18040</v>
+        <v>18039.99999999514</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>180400</v>
+        <v>180399.9999999514</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -16605,19 +16605,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29315</v>
+        <v>29314.99999996842</v>
       </c>
       <c r="C30" t="n">
-        <v>33824.99999999999</v>
+        <v>33824.99999996355</v>
       </c>
       <c r="D30" t="n">
-        <v>4510</v>
+        <v>4509.999999995141</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>45099.99999999999</v>
+        <v>45099.9999999514</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -17006,7 +17006,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703705</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
         <v>1190805.555555555</v>
@@ -17031,13 +17031,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>716099.8023885101</v>
+        <v>775087.4474074056</v>
       </c>
       <c r="C3" t="n">
-        <v>1074149.703582765</v>
+        <v>1162631.171111108</v>
       </c>
       <c r="D3" t="n">
-        <v>5370748.517913825</v>
+        <v>5813155.855555541</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -17056,13 +17056,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757261.5339077853</v>
+        <v>635096.2962962963</v>
       </c>
       <c r="C4" t="n">
-        <v>1135892.300861678</v>
+        <v>952644.4444444441</v>
       </c>
       <c r="D4" t="n">
-        <v>5679461.50430839</v>
+        <v>4763222.222222221</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -17081,13 +17081,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>179813.1481481481</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>269719.7222222221</v>
+        <v>364486.111111111</v>
       </c>
       <c r="D5" t="n">
-        <v>1348598.611111111</v>
+        <v>1822430.555555556</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -17112,7 +17112,7 @@
         <v>269719.7222222221</v>
       </c>
       <c r="D6" t="n">
-        <v>1348598.611111111</v>
+        <v>1348598.61111111</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -17681,10 +17681,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184008</v>
+        <v>184007.9999999505</v>
       </c>
       <c r="C29" t="n">
-        <v>32471.99999999999</v>
+        <v>32471.99999999125</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -17693,7 +17693,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>144320</v>
+        <v>144319.9999999611</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -17706,10 +17706,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>46001.99999999999</v>
+        <v>46001.99999995044</v>
       </c>
       <c r="C30" t="n">
-        <v>8117.999999999996</v>
+        <v>8117.999999991251</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -17718,7 +17718,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>36079.99999999999</v>
+        <v>36079.99999996112</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -17831,19 +17831,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777822</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333335</v>
+        <v>341133.3333333352</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -17856,19 +17856,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777822</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D36" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>341133.3333333335</v>
+        <v>341133.3333333352</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -17931,19 +17931,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777822</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333335</v>
+        <v>341133.3333333352</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -17956,19 +17956,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140466.6666666667</v>
+        <v>140466.6666666675</v>
       </c>
       <c r="C40" t="n">
-        <v>130433.3333333334</v>
+        <v>130433.3333333341</v>
       </c>
       <c r="D40" t="n">
-        <v>130433.3333333334</v>
+        <v>130433.3333333341</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>602000.0000000003</v>
+        <v>602000.0000000034</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -17981,19 +17981,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777822</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D41" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>341133.3333333335</v>
+        <v>341133.3333333352</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -18006,19 +18006,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.77777777781</v>
+        <v>79597.77777777822</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D42" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>341133.3333333335</v>
+        <v>341133.3333333352</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -18031,19 +18031,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777822</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D43" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>341133.3333333335</v>
+        <v>341133.3333333352</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -18107,7 +18107,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703705</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
         <v>1190805.555555555</v>
@@ -18132,10 +18132,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703713</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -18157,13 +18157,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757261.5339077853</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C4" t="n">
-        <v>1135892.300861678</v>
+        <v>1190805.555555555</v>
       </c>
       <c r="D4" t="n">
-        <v>5679461.50430839</v>
+        <v>5954027.777777777</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -18182,13 +18182,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -18207,13 +18207,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>228411.2962962965</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C6" t="n">
-        <v>342616.9444444447</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>1713084.722222224</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -18782,10 +18782,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184008</v>
+        <v>184007.9999999505</v>
       </c>
       <c r="C29" t="n">
-        <v>32471.99999999999</v>
+        <v>32471.99999999127</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -18794,7 +18794,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>144320</v>
+        <v>144319.9999999611</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -18807,10 +18807,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>46001.99999999999</v>
+        <v>46001.99999995044</v>
       </c>
       <c r="C30" t="n">
-        <v>8117.999999999996</v>
+        <v>8117.999999991251</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -18819,7 +18819,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>36079.99999999999</v>
+        <v>36079.99999996112</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -18932,7 +18932,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777781</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
         <v>73912.22222222226</v>
@@ -18957,7 +18957,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C36" t="n">
         <v>73912.22222222226</v>
@@ -19082,7 +19082,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777781</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C41" t="n">
         <v>73912.22222222226</v>
@@ -19208,13 +19208,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703705</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>7144833.333333333</v>
+        <v>1190805.555555555</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5954027.777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -19233,10 +19233,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703713</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -19258,13 +19258,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757261.5339077853</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>1135892.300861678</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D4" t="n">
-        <v>5679461.50430839</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -19283,13 +19283,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -19308,13 +19308,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>228411.2962962965</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C6" t="n">
-        <v>342616.9444444447</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>1713084.722222224</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -19661,7 +19661,7 @@
         <v>15334</v>
       </c>
       <c r="C20" t="n">
-        <v>2706</v>
+        <v>2705.999999999998</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -19883,10 +19883,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184008</v>
+        <v>184007.9999999504</v>
       </c>
       <c r="C29" t="n">
-        <v>32471.99999999999</v>
+        <v>32471.99999999124</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -19895,7 +19895,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>144320</v>
+        <v>144319.9999999611</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -19908,10 +19908,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>46001.99999999999</v>
+        <v>46001.99999995044</v>
       </c>
       <c r="C30" t="n">
-        <v>8117.999999999996</v>
+        <v>8117.999999991252</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -19920,7 +19920,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>36079.99999999999</v>
+        <v>36079.99999996112</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -20033,7 +20033,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C35" t="n">
         <v>73912.22222222226</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C39" t="n">
         <v>73912.22222222226</v>
@@ -20183,7 +20183,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C41" t="n">
         <v>73912.22222222226</v>
@@ -20208,7 +20208,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C42" t="n">
         <v>73912.22222222226</v>
@@ -20233,7 +20233,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C43" t="n">
         <v>73912.22222222226</v>
@@ -20309,13 +20309,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703705</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>7144833.333333331</v>
+        <v>1190805.555555555</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5954027.777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -20334,10 +20334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703713</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -20359,13 +20359,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757261.5339077853</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>1135892.300861678</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D4" t="n">
-        <v>5679461.50430839</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -20384,13 +20384,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -20409,13 +20409,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>228411.2962962965</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C6" t="n">
-        <v>342616.9444444447</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>1713084.722222224</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -20984,19 +20984,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>197169.8367346938</v>
+        <v>197169.8367346557</v>
       </c>
       <c r="C29" t="n">
-        <v>47658.73469387752</v>
+        <v>47658.73469383346</v>
       </c>
       <c r="D29" t="n">
-        <v>2024.897959183673</v>
+        <v>2024.897959177799</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>164568.9795918367</v>
+        <v>164568.979591778</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -21009,19 +21009,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49292.45918367346</v>
+        <v>49292.45918363526</v>
       </c>
       <c r="C30" t="n">
-        <v>11914.68367346938</v>
+        <v>11914.6836734253</v>
       </c>
       <c r="D30" t="n">
-        <v>506.2244897959183</v>
+        <v>506.2244897900405</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41142.24489795917</v>
+        <v>41142.2448979004</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -21410,7 +21410,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703705</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
         <v>7144833.333333331</v>
@@ -21435,10 +21435,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703713</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -21460,7 +21460,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
         <v>7144833.333333331</v>
@@ -21485,13 +21485,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -21510,13 +21510,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>228411.2962962965</v>
+        <v>228411.2962962963</v>
       </c>
       <c r="C6" t="n">
-        <v>342616.9444444447</v>
+        <v>342616.9444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>1713084.722222224</v>
+        <v>1713084.722222222</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22085,19 +22085,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>197169.8367346938</v>
+        <v>197169.8367346557</v>
       </c>
       <c r="C29" t="n">
-        <v>47658.73469387752</v>
+        <v>47658.73469383346</v>
       </c>
       <c r="D29" t="n">
-        <v>2024.897959183673</v>
+        <v>2024.897959177799</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>164568.9795918367</v>
+        <v>164568.979591778</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -22110,19 +22110,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49292.45918367346</v>
+        <v>49292.45918363526</v>
       </c>
       <c r="C30" t="n">
-        <v>11914.68367346938</v>
+        <v>11914.6836734253</v>
       </c>
       <c r="D30" t="n">
-        <v>506.2244897959183</v>
+        <v>506.2244897900405</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>41142.24489795917</v>
+        <v>41142.2448979004</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
